--- a/data/trans_orig/Q23_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79051EB2-E4B1-4EFF-B957-8A2517789459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{457497EF-1218-4F7E-BC36-E8DCEED90D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9060FBBA-F274-4BC4-99CF-F88A59F35B09}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42A1D3C9-C42B-421C-B3A4-8782EAFDF5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>44,25%</t>
   </si>
   <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>43,82%</t>
   </si>
   <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
   </si>
   <si>
     <t>44,05%</t>
   </si>
   <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>55,75%</t>
   </si>
   <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
   </si>
   <si>
     <t>56,18%</t>
   </si>
   <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
   </si>
   <si>
     <t>55,95%</t>
   </si>
   <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,715 +138,715 @@
     <t>29,76%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
   </si>
   <si>
     <t>29,03%</t>
   </si>
   <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>74,31%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8815A0D8-F2C1-44D4-9062-47DF037FB7CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE87319-D922-4ECA-802D-80E8A9C5495E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1704,7 +1704,7 @@
         <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>77287</v>
+        <v>77286</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1806,7 +1806,7 @@
         <v>287</v>
       </c>
       <c r="I12" s="7">
-        <v>298476</v>
+        <v>298475</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2477,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2BECC1-6264-4242-AED5-719FE47D8BC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8F2470-18B5-40C2-A77E-75947CF2C4BD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2774,10 +2774,10 @@
         <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -2786,13 +2786,13 @@
         <v>208920</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2807,13 @@
         <v>283803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>229</v>
@@ -2822,13 +2822,13 @@
         <v>243366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -2837,13 +2837,13 @@
         <v>527170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2911,13 @@
         <v>133910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -2926,13 +2926,13 @@
         <v>99151</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -2941,13 +2941,13 @@
         <v>233061</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2962,13 @@
         <v>292913</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>249</v>
@@ -2977,13 +2977,13 @@
         <v>264937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>527</v>
@@ -2992,10 +2992,10 @@
         <v>557850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>197</v>

--- a/data/trans_orig/Q23_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R2-Edad-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{457497EF-1218-4F7E-BC36-E8DCEED90D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5673774D-5896-4837-87BC-7AE140ADB9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42A1D3C9-C42B-421C-B3A4-8782EAFDF5C9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B396879D-16A3-46F3-8DB6-77936BBDC091}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="270">
-  <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="545">
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -132,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>29,76%</t>
@@ -189,7 +191,7 @@
     <t>74,68%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>28,26%</t>
@@ -246,7 +248,7 @@
     <t>76,06%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>34,42%</t>
@@ -303,7 +305,7 @@
     <t>74,96%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>42,94%</t>
@@ -360,61 +362,118 @@
     <t>69,13%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
   </si>
   <si>
     <t>35,85%</t>
@@ -474,7 +533,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
+    <t>Población la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
   </si>
   <si>
     <t>45,15%</t>
@@ -741,58 +800,103 @@
     <t>72,59%</t>
   </si>
   <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
   </si>
   <si>
     <t>36,49%</t>
@@ -847,6 +951,729 @@
   </si>
   <si>
     <t>68,27%</t>
+  </si>
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2016 (Tasa respuesta: 3,93%)</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2023 (Tasa respuesta: 34,37%)</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
 </sst>
 </file>
@@ -1258,8 +2085,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE87319-D922-4ECA-802D-80E8A9C5495E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777CDAF2-5A91-4A68-9A02-84BF38BBAF19}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1564,7 +2391,7 @@
         <v>192</v>
       </c>
       <c r="N7" s="7">
-        <v>195062</v>
+        <v>195061</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1666,7 +2493,7 @@
         <v>648</v>
       </c>
       <c r="N9" s="7">
-        <v>671840</v>
+        <v>671839</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2151,10 +2978,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>120052</v>
+        <v>57899</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2166,10 +2993,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>4941</v>
+        <v>896</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2181,10 +3008,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="N19" s="7">
-        <v>124994</v>
+        <v>58795</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2202,10 +3029,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="D20" s="7">
-        <v>144365</v>
+        <v>86663</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2217,10 +3044,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I20" s="7">
-        <v>27020</v>
+        <v>17195</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2232,10 +3059,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="N20" s="7">
-        <v>171384</v>
+        <v>103858</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2253,10 +3080,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="D21" s="7">
-        <v>264417</v>
+        <v>144562</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2268,10 +3095,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I21" s="7">
-        <v>31961</v>
+        <v>18091</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2283,10 +3110,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="N21" s="7">
-        <v>296378</v>
+        <v>162653</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2300,55 +3127,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>632</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>641679</v>
+        <v>62154</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>276</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>278236</v>
+        <v>4044</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>908</v>
+        <v>66</v>
       </c>
       <c r="N22" s="7">
-        <v>919915</v>
+        <v>66198</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,49 +3184,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1122</v>
+        <v>59</v>
       </c>
       <c r="D23" s="7">
-        <v>1147973</v>
+        <v>57701</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>726</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>751083</v>
+        <v>9825</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>1848</v>
+        <v>67</v>
       </c>
       <c r="N23" s="7">
-        <v>1899056</v>
+        <v>67526</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,63 +3235,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>122</v>
+      </c>
+      <c r="D24" s="7">
+        <v>119855</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7">
+        <v>13869</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>133</v>
+      </c>
+      <c r="N24" s="7">
+        <v>133724</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>632</v>
+      </c>
+      <c r="D25" s="7">
+        <v>641678</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>276</v>
+      </c>
+      <c r="I25" s="7">
+        <v>278236</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>908</v>
+      </c>
+      <c r="N25" s="7">
+        <v>919915</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1122</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1147973</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>726</v>
+      </c>
+      <c r="I26" s="7">
+        <v>751083</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1848</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1899056</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1754</v>
       </c>
-      <c r="D24" s="7">
-        <v>1789652</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1789651</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1002</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1029319</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2756</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2818971</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2477,8 +3460,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8F2470-18B5-40C2-A77E-75947CF2C4BD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5B1759-8928-4345-A707-D06C0CD1EA92}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2494,7 +3477,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2601,13 +3584,13 @@
         <v>81710</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>85</v>
@@ -2616,13 +3599,13 @@
         <v>89173</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>165</v>
@@ -2631,13 +3614,13 @@
         <v>170883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +3635,13 @@
         <v>99273</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -2667,13 +3650,13 @@
         <v>71815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>171</v>
@@ -2682,13 +3665,13 @@
         <v>171087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +3739,13 @@
         <v>125173</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -2771,13 +3754,13 @@
         <v>83748</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -2786,13 +3769,13 @@
         <v>208920</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +3790,13 @@
         <v>283803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>229</v>
@@ -2822,13 +3805,13 @@
         <v>243366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -2837,13 +3820,13 @@
         <v>527170</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +3894,13 @@
         <v>133910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -2926,13 +3909,13 @@
         <v>99151</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -2941,10 +3924,10 @@
         <v>233061</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>53</v>
@@ -2962,13 +3945,13 @@
         <v>292913</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>249</v>
@@ -2977,13 +3960,13 @@
         <v>264937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>527</v>
@@ -2992,13 +3975,13 @@
         <v>557850</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +4049,13 @@
         <v>160570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -3081,13 +4064,13 @@
         <v>85057</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -3096,13 +4079,13 @@
         <v>245627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +4100,13 @@
         <v>284018</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
@@ -3132,13 +4115,13 @@
         <v>239296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>459</v>
@@ -3147,13 +4130,13 @@
         <v>523314</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +4204,13 @@
         <v>114536</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3236,13 +4219,13 @@
         <v>14676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -3251,13 +4234,13 @@
         <v>129212</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +4255,13 @@
         <v>176198</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
@@ -3287,13 +4270,13 @@
         <v>102690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>249</v>
@@ -3302,13 +4285,13 @@
         <v>278887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,19 +4353,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D19" s="7">
-        <v>159592</v>
+        <v>85962</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3391,28 +4374,28 @@
         <v>4619</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="N19" s="7">
-        <v>164211</v>
+        <v>90581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,49 +4404,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="D20" s="7">
-        <v>213616</v>
+        <v>125959</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I20" s="7">
-        <v>34549</v>
+        <v>24113</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="N20" s="7">
-        <v>248166</v>
+        <v>150072</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,10 +4455,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>339</v>
+        <v>194</v>
       </c>
       <c r="D21" s="7">
-        <v>373208</v>
+        <v>211921</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3487,10 +4470,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I21" s="7">
-        <v>39168</v>
+        <v>28732</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3502,10 +4485,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>374</v>
+        <v>220</v>
       </c>
       <c r="N21" s="7">
-        <v>412377</v>
+        <v>240653</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3519,55 +4502,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>729</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7">
-        <v>775491</v>
+        <v>73630</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>376424</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
-        <v>1073</v>
+        <v>67</v>
       </c>
       <c r="N22" s="7">
-        <v>1151915</v>
+        <v>73630</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,49 +4559,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1250</v>
+        <v>78</v>
       </c>
       <c r="D23" s="7">
-        <v>1349821</v>
+        <v>87657</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
-        <v>881</v>
+        <v>9</v>
       </c>
       <c r="I23" s="7">
-        <v>956652</v>
+        <v>10436</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>2131</v>
+        <v>87</v>
       </c>
       <c r="N23" s="7">
-        <v>2306473</v>
+        <v>98093</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,63 +4610,2951 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>145</v>
+      </c>
+      <c r="D24" s="7">
+        <v>161287</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10436</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>154</v>
+      </c>
+      <c r="N24" s="7">
+        <v>171723</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>729</v>
+      </c>
+      <c r="D25" s="7">
+        <v>775491</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="7">
+        <v>344</v>
+      </c>
+      <c r="I25" s="7">
+        <v>376424</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1073</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1151915</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1250</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1349821</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" s="7">
+        <v>881</v>
+      </c>
+      <c r="I26" s="7">
+        <v>956652</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2131</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2306473</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1979</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2125312</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1225</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1333076</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3204</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3458388</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6986BB-AFBA-4B2B-BFAF-8E0B66B00BF9}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>24468</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9255</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M4" s="7">
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>33724</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16073</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5590</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M5" s="7">
+        <v>22</v>
+      </c>
+      <c r="N5" s="7">
+        <v>21663</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40541</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7">
+        <v>14845</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>54</v>
+      </c>
+      <c r="N6" s="7">
+        <v>55387</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7">
+        <v>25212</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="7">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7">
+        <v>14077</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M7" s="7">
+        <v>38</v>
+      </c>
+      <c r="N7" s="7">
+        <v>39289</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45173</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9505</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M8" s="7">
+        <v>52</v>
+      </c>
+      <c r="N8" s="7">
+        <v>54678</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>70385</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>24</v>
+      </c>
+      <c r="I9" s="7">
+        <v>23582</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>90</v>
+      </c>
+      <c r="N9" s="7">
+        <v>93967</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <v>18935</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6706</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M10" s="7">
+        <v>26</v>
+      </c>
+      <c r="N10" s="7">
+        <v>25641</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7">
+        <v>23646</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7">
+        <v>12810</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M11" s="7">
+        <v>36</v>
+      </c>
+      <c r="N11" s="7">
+        <v>36456</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7">
+        <v>42581</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7">
+        <v>19516</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>62</v>
+      </c>
+      <c r="N12" s="7">
+        <v>62097</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7">
+        <v>27407</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1020</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="7">
+        <v>25</v>
+      </c>
+      <c r="N13" s="7">
+        <v>28427</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>9718</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3072</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="7">
+        <v>11</v>
+      </c>
+      <c r="N14" s="7">
+        <v>12790</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7">
+        <v>37125</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4092</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>36</v>
+      </c>
+      <c r="N15" s="7">
+        <v>41217</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1819</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2820</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2077</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7168</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8</v>
+      </c>
+      <c r="N17" s="7">
+        <v>9245</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3077</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8987</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>10</v>
+      </c>
+      <c r="N18" s="7">
+        <v>12065</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2926</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2926</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2011</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1022</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3033</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4937</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1022</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>6</v>
+      </c>
+      <c r="N21" s="7">
+        <v>5959</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7">
+        <v>99949</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H25" s="7">
+        <v>32</v>
+      </c>
+      <c r="I25" s="7">
+        <v>32877</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M25" s="7">
+        <v>126</v>
+      </c>
+      <c r="N25" s="7">
+        <v>132825</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>93</v>
+      </c>
+      <c r="D26" s="7">
+        <v>98698</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H26" s="7">
+        <v>39</v>
+      </c>
+      <c r="I26" s="7">
+        <v>39167</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M26" s="7">
+        <v>132</v>
+      </c>
+      <c r="N26" s="7">
+        <v>137866</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>187</v>
+      </c>
+      <c r="D27" s="7">
+        <v>198647</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>71</v>
+      </c>
+      <c r="I27" s="7">
+        <v>72044</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>258</v>
+      </c>
+      <c r="N27" s="7">
+        <v>270691</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A883DD3D-9327-47E9-90CB-EB643CC650D8}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>38550</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>26355</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M4" s="7">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>64905</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59081</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" s="7">
+        <v>35</v>
+      </c>
+      <c r="I5" s="7">
+        <v>51721</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M5" s="7">
+        <v>60</v>
+      </c>
+      <c r="N5" s="7">
+        <v>110803</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>97631</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>49</v>
+      </c>
+      <c r="I6" s="7">
+        <v>78076</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>88</v>
+      </c>
+      <c r="N6" s="7">
+        <v>175708</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7">
+        <v>48471</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H7" s="7">
+        <v>36</v>
+      </c>
+      <c r="I7" s="7">
+        <v>37217</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M7" s="7">
+        <v>73</v>
+      </c>
+      <c r="N7" s="7">
+        <v>85688</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>84</v>
+      </c>
+      <c r="D8" s="7">
+        <v>119215</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="7">
+        <v>107</v>
+      </c>
+      <c r="I8" s="7">
+        <v>108252</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M8" s="7">
+        <v>191</v>
+      </c>
+      <c r="N8" s="7">
+        <v>227466</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>121</v>
+      </c>
+      <c r="D9" s="7">
+        <v>167686</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>143</v>
+      </c>
+      <c r="I9" s="7">
+        <v>145469</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>264</v>
+      </c>
+      <c r="N9" s="7">
+        <v>313154</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>59</v>
+      </c>
+      <c r="D10" s="7">
+        <v>59727</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H10" s="7">
+        <v>58</v>
+      </c>
+      <c r="I10" s="7">
+        <v>40007</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="M10" s="7">
+        <v>117</v>
+      </c>
+      <c r="N10" s="7">
+        <v>99734</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>127</v>
+      </c>
+      <c r="D11" s="7">
+        <v>129394</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H11" s="7">
+        <v>211</v>
+      </c>
+      <c r="I11" s="7">
+        <v>146505</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M11" s="7">
+        <v>338</v>
+      </c>
+      <c r="N11" s="7">
+        <v>275899</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>186</v>
+      </c>
+      <c r="D12" s="7">
+        <v>189121</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>269</v>
+      </c>
+      <c r="I12" s="7">
+        <v>186512</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>455</v>
+      </c>
+      <c r="N12" s="7">
+        <v>375633</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>83</v>
+      </c>
+      <c r="D13" s="7">
+        <v>80135</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H13" s="7">
+        <v>88</v>
+      </c>
+      <c r="I13" s="7">
+        <v>55453</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M13" s="7">
+        <v>171</v>
+      </c>
+      <c r="N13" s="7">
+        <v>135588</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>202</v>
+      </c>
+      <c r="D14" s="7">
+        <v>451726</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H14" s="7">
+        <v>320</v>
+      </c>
+      <c r="I14" s="7">
+        <v>190956</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="M14" s="7">
+        <v>522</v>
+      </c>
+      <c r="N14" s="7">
+        <v>642682</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>531861</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>408</v>
+      </c>
+      <c r="I15" s="7">
+        <v>246409</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>693</v>
+      </c>
+      <c r="N15" s="7">
+        <v>778270</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>136</v>
+      </c>
+      <c r="D16" s="7">
+        <v>118469</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H16" s="7">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7">
+        <v>51959</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M16" s="7">
+        <v>224</v>
+      </c>
+      <c r="N16" s="7">
+        <v>170428</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>242</v>
+      </c>
+      <c r="D17" s="7">
+        <v>210662</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H17" s="7">
+        <v>273</v>
+      </c>
+      <c r="I17" s="7">
+        <v>151848</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="M17" s="7">
+        <v>515</v>
+      </c>
+      <c r="N17" s="7">
+        <v>362510</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>378</v>
+      </c>
+      <c r="D18" s="7">
+        <v>329131</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>361</v>
+      </c>
+      <c r="I18" s="7">
+        <v>203807</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>739</v>
+      </c>
+      <c r="N18" s="7">
+        <v>532938</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>125</v>
+      </c>
+      <c r="D19" s="7">
+        <v>84706</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H19" s="7">
+        <v>42</v>
+      </c>
+      <c r="I19" s="7">
+        <v>20749</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="M19" s="7">
+        <v>167</v>
+      </c>
+      <c r="N19" s="7">
+        <v>105455</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>207</v>
+      </c>
+      <c r="D20" s="7">
+        <v>135843</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="H20" s="7">
+        <v>137</v>
+      </c>
+      <c r="I20" s="7">
+        <v>70414</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="M20" s="7">
+        <v>344</v>
+      </c>
+      <c r="N20" s="7">
+        <v>206256</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>332</v>
+      </c>
+      <c r="D21" s="7">
+        <v>220549</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>179</v>
+      </c>
+      <c r="I21" s="7">
+        <v>91163</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>511</v>
+      </c>
+      <c r="N21" s="7">
+        <v>311711</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>91</v>
+      </c>
+      <c r="D22" s="7">
+        <v>57911</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H22" s="7">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3320</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M22" s="7">
+        <v>97</v>
+      </c>
+      <c r="N22" s="7">
+        <v>61231</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>121</v>
+      </c>
+      <c r="D23" s="7">
+        <v>75730</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H23" s="7">
+        <v>37</v>
+      </c>
+      <c r="I23" s="7">
+        <v>18955</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M23" s="7">
+        <v>158</v>
+      </c>
+      <c r="N23" s="7">
+        <v>94685</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>212</v>
+      </c>
+      <c r="D24" s="7">
+        <v>133641</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>43</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22275</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>255</v>
+      </c>
+      <c r="N24" s="7">
+        <v>155916</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>545</v>
+      </c>
+      <c r="D25" s="7">
+        <v>487969</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="H25" s="7">
+        <v>332</v>
+      </c>
+      <c r="I25" s="7">
+        <v>235060</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="M25" s="7">
+        <v>877</v>
+      </c>
+      <c r="N25" s="7">
+        <v>723029</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1008</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1181651</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1120</v>
+      </c>
+      <c r="I26" s="7">
+        <v>738651</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2128</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1920302</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1553</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1669620</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1452</v>
+      </c>
+      <c r="I27" s="7">
+        <v>973711</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3005</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2643331</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
